--- a/Results/Simpson_F15_Math.xlsx
+++ b/Results/Simpson_F15_Math.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloisechakour/Documents/GitHub/B21Research/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3180" yWindow="460" windowWidth="17540" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Course Code</t>
   </si>
@@ -185,13 +199,25 @@
   </si>
   <si>
     <t>Math 122</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +254,1235 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Math 133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Math 133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Math 133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Math 133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Math 141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Math 150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Math 203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Math 203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Math 222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Math 222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Math 235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Math 140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Math 180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Math 240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Math 242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Math 248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Math 254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Math 316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Math 318</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Math 323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Math 317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Math 315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Math 324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Math 325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Math 350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Math 352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Math 314</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Math 139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Math 223</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Math 338</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Math 417</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Math 487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Math 356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Math 423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Math 533</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Math 427</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Math 454</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Math 456</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Math 525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Math 541</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Math 556</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Math 553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Math 326</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Math 376</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Math 564</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Math 570</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Math 576</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Math 578</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Math 580</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Math 587</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Math 475</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Math 599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Math 366</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Math 262</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Math 264</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Math 263</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Math 270</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Math 271</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Math 381</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Math 122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.422530559372566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.422530559372566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422530559372566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.422530559372566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.398539239297864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.366372527284008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.499675697626553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.499675697626553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8840014991831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.8840014991831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.206057468623422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.411939591218174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0308839785214093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.150854430416125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.24077172235122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.31484426696624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.469751040960551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.661237417766019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.741245243526383</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.985298750724308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.707058594375495</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.676680764165807</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.77920457450116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.856058548664095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.434399850500554</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.929380259889032</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.48948313779355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.479904753744235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.115451868593365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.443408231083597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.87388224272649</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.629139847046037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.582710577443174</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.935693053911664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7.754140722762961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.109491066971852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.839035620657212</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.968720624046667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.67604438810397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.190079200034852</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.499004711099534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.84647431784947</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.81270988609437</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.689893297221767</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.726893115411643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.247645529581621</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.147762892044479</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.46744161890592</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.140655753817624</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.340392911281476</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.361466164881194</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10.16031241402407</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.055567938972641</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.850505045556018</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.715953198946023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.605530553206391</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.744142824855316</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.910743450120686</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.06671419655353</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.487990013702021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1393964448"/>
+        <c:axId val="-1393962400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1393964448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1393962400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1393962400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1393964448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8680000" cy="6290000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -274,12 +1528,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -306,14 +1560,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -340,6 +1595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,14 +1771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,87 +1788,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4225305593725662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.42253055937256617</v>
+      </c>
+      <c r="D2">
+        <f>MAX(B2:B61)</f>
+        <v>0.48799001370202089</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4225305593725662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.42253055937256617</v>
+      </c>
+      <c r="D3">
+        <f>MIN(B2:B61)</f>
+        <v>-10.160312414024069</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4225305593725662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.42253055937256617</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.VAR.P(B2:B61)</f>
+        <v>10.331381251331795</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.4225305593725662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.42253055937256617</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(B2:B61)</f>
+        <v>-3.5341922564565151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.3985392392978639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.39853923929786389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.3663725272840077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.36637252728400771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>-0.4996756976265532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.49967569762655317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>-0.4996756976265532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.49967569762655317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>-0.8840014991831004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.88400149918310045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>-0.8840014991831004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.88400149918310045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -618,23 +1904,23 @@
         <v>-1.206057468623422</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.4119395912181743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.41193959121817431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.03088397852140934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3.0883978521409339E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -642,7 +1928,7 @@
         <v>-1.150854430416125</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -650,15 +1936,15 @@
         <v>-1.24077172235122</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>-1.31484426696624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>-1.3148442669662399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -666,7 +1952,7 @@
         <v>-1.469751040960551</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -674,23 +1960,23 @@
         <v>-2.661237417766019</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20">
-        <v>-2.741245243526383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-2.7412452435263832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21">
-        <v>-2.985298750724308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-2.9852987507243078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -698,23 +1984,23 @@
         <v>-2.707058594375495</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>-2.676680764165807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-2.6766807641658068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24">
-        <v>-2.779204574501159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-2.7792045745011591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -722,7 +2008,7 @@
         <v>-2.856058548664095</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -730,31 +2016,31 @@
         <v>-3.434399850500554</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
-        <v>-3.929380259889032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>-3.9293802598890322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28">
-        <v>-2.48948313779355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-2.4894831377935498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.4799047537442349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.47990475374423491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -762,39 +2048,39 @@
         <v>-1.115451868593365</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31">
-        <v>-3.443408231083597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-3.4434082310835969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32">
-        <v>-4.87388224272649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-4.8738822427264896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33">
-        <v>-6.629139847046037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-6.6291398470460372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34">
-        <v>-3.582710577443174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-3.5827105774431738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -802,175 +2088,175 @@
         <v>-4.935693053911665</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36">
-        <v>-7.754140722762961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-7.7541407227629611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37">
-        <v>-5.109491066971852</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>-5.1094910669718523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
-        <v>-5.839035620657212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-5.8390356206572118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
-        <v>-5.968720624046668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-5.9687206240466679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
-        <v>-7.67604438810397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-7.6760443881039704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
-        <v>-8.190079200034852</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-8.1900792000348517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42">
-        <v>-8.499004711099534</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>-8.4990047110995341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43">
-        <v>-8.846474317849472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-8.8464743178494718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44">
-        <v>-2.81270988609437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-2.8127098860943698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45">
-        <v>-3.689893297221767</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-3.6898932972217668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46">
-        <v>-8.726893115411643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-8.7268931154116434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47">
-        <v>-9.247645529581622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-9.2476455295816216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48">
-        <v>-9.147762892044479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-9.1477628920444793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49">
-        <v>-9.467441618905919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-9.4674416189059194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-9.140655753817624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-9.1406557538176241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
       <c r="B51">
-        <v>-9.340392911281477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-9.3403929112814765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52">
-        <v>-6.361466164881194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>-6.3614661648811941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
       <c r="B53">
-        <v>-10.16031241402407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-10.160312414024069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54">
-        <v>-4.055567938972641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-4.0555679389726409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55">
-        <v>-1.850505045556018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-1.8505050455560179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
       <c r="B56">
-        <v>-1.715953198946023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-1.7159531989460231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -978,36 +2264,36 @@
         <v>-1.605530553206391</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
       <c r="B58">
-        <v>-1.744142824855316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-1.7441428248553159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59">
-        <v>-1.910743450120686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-1.9107434501206859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60">
-        <v>-4.066714196553529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-4.0667141965535292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.4879900137020209</v>
+        <v>0.48799001370202089</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Simpson_F15_Math.xlsx
+++ b/Results/Simpson_F15_Math.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloisechakour/Documents/GitHub/B21Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloisechakour/Documents/GitHub/B21Research/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="460" windowWidth="17540" windowHeight="17440"/>
+    <workbookView xWindow="3180" yWindow="460" windowWidth="17540" windowHeight="17440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -725,11 +725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1393964448"/>
-        <c:axId val="-1393962400"/>
+        <c:axId val="-1159901872"/>
+        <c:axId val="-1159899824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1393964448"/>
+        <c:axId val="-1159901872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,12 +785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1393962400"/>
+        <c:crossAx val="-1159899824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1393962400"/>
+        <c:axId val="-1159899824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1393964448"/>
+        <c:crossAx val="-1159901872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1451,7 +1451,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
